--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value277.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value277.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6241689439866897</v>
+        <v>1.572298049926758</v>
       </c>
       <c r="B1">
-        <v>1.197991119870609</v>
+        <v>1.637515068054199</v>
       </c>
       <c r="C1">
-        <v>2.506985595364143</v>
+        <v>1.837121605873108</v>
       </c>
       <c r="D1">
-        <v>2.883130705348915</v>
+        <v>2.82489275932312</v>
       </c>
       <c r="E1">
-        <v>1.668931363423335</v>
+        <v>3.287432432174683</v>
       </c>
     </row>
   </sheetData>
